--- a/india/forecasts_20200501.xlsx
+++ b/india/forecasts_20200501.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -80,169 +80,166 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">1257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1292</t>
+    <t xml:space="preserve">1276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">1311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1360</t>
+    <t xml:space="preserve">1362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1397</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">1443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1509</t>
+    <t xml:space="preserve">1512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1561</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">1557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1637</t>
+    <t xml:space="preserve">1621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1681</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">1737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1839</t>
+    <t xml:space="preserve">1761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1835</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">1795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1917</t>
+    <t xml:space="preserve">1846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1938</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">1948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2089</t>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2127</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">2080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2253</t>
+    <t xml:space="preserve">2196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2320</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">2193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2382</t>
+    <t xml:space="preserve">2358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2497</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">2360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2569</t>
+    <t xml:space="preserve">2572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2735</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">2547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2799</t>
+    <t xml:space="preserve">2809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2990</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">2810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3083</t>
+    <t xml:space="preserve">3065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3272</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">2952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3246</t>
+    <t xml:space="preserve">3270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3497</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">3193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3531</t>
+    <t xml:space="preserve">3568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3814</t>
   </si>
 </sst>
 </file>
@@ -656,31 +653,31 @@
         <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>19177</v>
+        <v>19028</v>
       </c>
       <c r="E2" t="n">
-        <v>18691</v>
+        <v>18589</v>
       </c>
       <c r="F2" t="n">
-        <v>19701</v>
+        <v>19524</v>
       </c>
       <c r="G2" t="n">
-        <v>1446</v>
+        <v>1297</v>
       </c>
       <c r="H2" t="n">
-        <v>960</v>
+        <v>858</v>
       </c>
       <c r="I2" t="n">
-        <v>1970</v>
+        <v>1793</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0816</v>
+        <v>0.0731</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0541</v>
+        <v>0.0484</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1111</v>
+        <v>0.1011</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -692,22 +689,22 @@
         <v>24</v>
       </c>
       <c r="P2" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="R2" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0499</v>
+        <v>0.0663</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0243</v>
+        <v>0.0481</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0795</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="3">
@@ -721,31 +718,31 @@
         <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>20970</v>
+        <v>20403</v>
       </c>
       <c r="E3" t="n">
-        <v>20235</v>
+        <v>19737</v>
       </c>
       <c r="F3" t="n">
-        <v>21748</v>
+        <v>21104</v>
       </c>
       <c r="G3" t="n">
-        <v>1792</v>
+        <v>1375</v>
       </c>
       <c r="H3" t="n">
-        <v>1248</v>
+        <v>899</v>
       </c>
       <c r="I3" t="n">
-        <v>2314</v>
+        <v>1905</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0935</v>
+        <v>0.0723</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0651</v>
+        <v>0.0473</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1206</v>
+        <v>0.1001</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -757,22 +754,22 @@
         <v>28</v>
       </c>
       <c r="P3" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="Q3" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="R3" t="n">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0428</v>
+        <v>0.067</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0173</v>
+        <v>0.0479</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0693</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="4">
@@ -786,31 +783,31 @@
         <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>23938</v>
+        <v>22870</v>
       </c>
       <c r="E4" t="n">
-        <v>22933</v>
+        <v>22001</v>
       </c>
       <c r="F4" t="n">
-        <v>25048</v>
+        <v>23799</v>
       </c>
       <c r="G4" t="n">
-        <v>2968</v>
+        <v>2467</v>
       </c>
       <c r="H4" t="n">
-        <v>2380</v>
+        <v>1924</v>
       </c>
       <c r="I4" t="n">
-        <v>3603</v>
+        <v>3041</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1415</v>
+        <v>0.1209</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1135</v>
+        <v>0.0943</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1718</v>
+        <v>0.1491</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -822,22 +819,22 @@
         <v>32</v>
       </c>
       <c r="P4" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="R4" t="n">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1011</v>
+        <v>0.1103</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0696</v>
+        <v>0.0903</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1284</v>
+        <v>0.1314</v>
       </c>
     </row>
     <row r="5">
@@ -851,31 +848,31 @@
         <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>26529</v>
+        <v>25275</v>
       </c>
       <c r="E5" t="n">
-        <v>25188</v>
+        <v>24168</v>
       </c>
       <c r="F5" t="n">
-        <v>27993</v>
+        <v>26519</v>
       </c>
       <c r="G5" t="n">
-        <v>2591</v>
+        <v>2405</v>
       </c>
       <c r="H5" t="n">
-        <v>1980</v>
+        <v>1790</v>
       </c>
       <c r="I5" t="n">
-        <v>3339</v>
+        <v>3069</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1083</v>
+        <v>0.1052</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0827</v>
+        <v>0.0783</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1395</v>
+        <v>0.1342</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -887,22 +884,22 @@
         <v>36</v>
       </c>
       <c r="P5" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q5" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="R5" t="n">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0792</v>
+        <v>0.0718</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0499</v>
+        <v>0.0528</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1071</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="6">
@@ -916,31 +913,31 @@
         <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>30143</v>
+        <v>27901</v>
       </c>
       <c r="E6" t="n">
-        <v>28494</v>
+        <v>26556</v>
       </c>
       <c r="F6" t="n">
-        <v>31981</v>
+        <v>29459</v>
       </c>
       <c r="G6" t="n">
-        <v>3614</v>
+        <v>2626</v>
       </c>
       <c r="H6" t="n">
-        <v>2834</v>
+        <v>1993</v>
       </c>
       <c r="I6" t="n">
-        <v>4468</v>
+        <v>3298</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1362</v>
+        <v>0.1039</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1068</v>
+        <v>0.0788</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1684</v>
+        <v>0.1305</v>
       </c>
       <c r="M6" t="s">
         <v>38</v>
@@ -952,22 +949,22 @@
         <v>40</v>
       </c>
       <c r="P6" t="n">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="Q6" t="n">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="R6" t="n">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1151</v>
+        <v>0.0865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.088</v>
+        <v>0.0659</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1469</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="7">
@@ -981,31 +978,31 @@
         <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>32434</v>
+        <v>30310</v>
       </c>
       <c r="E7" t="n">
-        <v>30437</v>
+        <v>28644</v>
       </c>
       <c r="F7" t="n">
-        <v>34814</v>
+        <v>32119</v>
       </c>
       <c r="G7" t="n">
-        <v>2291</v>
+        <v>2409</v>
       </c>
       <c r="H7" t="n">
-        <v>1485</v>
+        <v>1670</v>
       </c>
       <c r="I7" t="n">
-        <v>3195</v>
+        <v>3164</v>
       </c>
       <c r="J7" t="n">
-        <v>0.076</v>
+        <v>0.0863</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0493</v>
+        <v>0.0598</v>
       </c>
       <c r="L7" t="n">
-        <v>0.106</v>
+        <v>0.1134</v>
       </c>
       <c r="M7" t="s">
         <v>42</v>
@@ -1017,22 +1014,22 @@
         <v>44</v>
       </c>
       <c r="P7" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="Q7" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="R7" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0334</v>
+        <v>0.0485</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0082</v>
+        <v>0.0292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0627</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="8">
@@ -1046,31 +1043,31 @@
         <v>46</v>
       </c>
       <c r="D8" t="n">
-        <v>36747</v>
+        <v>33725</v>
       </c>
       <c r="E8" t="n">
-        <v>34383</v>
+        <v>31749</v>
       </c>
       <c r="F8" t="n">
-        <v>39599</v>
+        <v>35894</v>
       </c>
       <c r="G8" t="n">
-        <v>4313</v>
+        <v>3415</v>
       </c>
       <c r="H8" t="n">
-        <v>3289</v>
+        <v>2660</v>
       </c>
       <c r="I8" t="n">
-        <v>5379</v>
+        <v>4241</v>
       </c>
       <c r="J8" t="n">
-        <v>0.133</v>
+        <v>0.1127</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1014</v>
+        <v>0.0878</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1658</v>
+        <v>0.1399</v>
       </c>
       <c r="M8" t="s">
         <v>46</v>
@@ -1082,22 +1079,22 @@
         <v>48</v>
       </c>
       <c r="P8" t="n">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="Q8" t="n">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="R8" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0852</v>
+        <v>0.0954</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0572</v>
+        <v>0.0756</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1155</v>
+        <v>0.1134</v>
       </c>
     </row>
     <row r="9">
@@ -1111,31 +1108,31 @@
         <v>47</v>
       </c>
       <c r="D9" t="n">
-        <v>40842</v>
+        <v>37454</v>
       </c>
       <c r="E9" t="n">
-        <v>37971</v>
+        <v>35203</v>
       </c>
       <c r="F9" t="n">
-        <v>44122</v>
+        <v>39980</v>
       </c>
       <c r="G9" t="n">
-        <v>4095</v>
+        <v>3729</v>
       </c>
       <c r="H9" t="n">
-        <v>3024</v>
+        <v>2812</v>
       </c>
       <c r="I9" t="n">
-        <v>5232</v>
+        <v>4637</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1114</v>
+        <v>0.1106</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0823</v>
+        <v>0.0834</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1424</v>
+        <v>0.1375</v>
       </c>
       <c r="M9" t="s">
         <v>50</v>
@@ -1147,22 +1144,22 @@
         <v>52</v>
       </c>
       <c r="P9" t="n">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="Q9" t="n">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="R9" t="n">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0682</v>
+        <v>0.0861</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0419</v>
+        <v>0.0665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0987</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="10">
@@ -1176,31 +1173,31 @@
         <v>48</v>
       </c>
       <c r="D10" t="n">
-        <v>45219</v>
+        <v>40926</v>
       </c>
       <c r="E10" t="n">
-        <v>41925</v>
+        <v>38314</v>
       </c>
       <c r="F10" t="n">
-        <v>48905</v>
+        <v>43996</v>
       </c>
       <c r="G10" t="n">
-        <v>4376</v>
+        <v>3472</v>
       </c>
       <c r="H10" t="n">
-        <v>3206</v>
+        <v>2554</v>
       </c>
       <c r="I10" t="n">
-        <v>5636</v>
+        <v>4478</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1072</v>
+        <v>0.0927</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0785</v>
+        <v>0.0682</v>
       </c>
       <c r="L10" t="n">
-        <v>0.138</v>
+        <v>0.1196</v>
       </c>
       <c r="M10" t="s">
         <v>54</v>
@@ -1212,22 +1209,22 @@
         <v>56</v>
       </c>
       <c r="P10" t="n">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="Q10" t="n">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0541</v>
+        <v>0.0736</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0262</v>
+        <v>0.0555</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0801</v>
+        <v>0.0931</v>
       </c>
     </row>
     <row r="11">
@@ -1241,31 +1238,31 @@
         <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>51105</v>
+        <v>45599</v>
       </c>
       <c r="E11" t="n">
-        <v>47080</v>
+        <v>42525</v>
       </c>
       <c r="F11" t="n">
-        <v>55737</v>
+        <v>49093</v>
       </c>
       <c r="G11" t="n">
-        <v>5887</v>
+        <v>4673</v>
       </c>
       <c r="H11" t="n">
-        <v>4523</v>
+        <v>3591</v>
       </c>
       <c r="I11" t="n">
-        <v>7267</v>
+        <v>5903</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1302</v>
+        <v>0.1142</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1</v>
+        <v>0.0877</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1607</v>
+        <v>0.1442</v>
       </c>
       <c r="M11" t="s">
         <v>58</v>
@@ -1277,22 +1274,22 @@
         <v>60</v>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="Q11" t="n">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="R11" t="n">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0763</v>
+        <v>0.0906</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0495</v>
+        <v>0.0711</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1059</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="12">
@@ -1306,31 +1303,31 @@
         <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>58425</v>
+        <v>50661</v>
       </c>
       <c r="E12" t="n">
-        <v>53590</v>
+        <v>47101</v>
       </c>
       <c r="F12" t="n">
-        <v>63999</v>
+        <v>54897</v>
       </c>
       <c r="G12" t="n">
-        <v>7319</v>
+        <v>5063</v>
       </c>
       <c r="H12" t="n">
-        <v>5772</v>
+        <v>3769</v>
       </c>
       <c r="I12" t="n">
-        <v>9001</v>
+        <v>6383</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1432</v>
+        <v>0.111</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1129</v>
+        <v>0.0826</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1761</v>
+        <v>0.14</v>
       </c>
       <c r="M12" t="s">
         <v>62</v>
@@ -1342,22 +1339,22 @@
         <v>64</v>
       </c>
       <c r="P12" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="Q12" t="n">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="R12" t="n">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0792</v>
+        <v>0.0921</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0528</v>
+        <v>0.0714</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1109</v>
+        <v>0.1113</v>
       </c>
     </row>
     <row r="13">
@@ -1371,31 +1368,31 @@
         <v>51</v>
       </c>
       <c r="D13" t="n">
-        <v>66640</v>
+        <v>57377</v>
       </c>
       <c r="E13" t="n">
-        <v>61047</v>
+        <v>53155</v>
       </c>
       <c r="F13" t="n">
-        <v>72821</v>
+        <v>62276</v>
       </c>
       <c r="G13" t="n">
-        <v>8215</v>
+        <v>6716</v>
       </c>
       <c r="H13" t="n">
-        <v>6437</v>
+        <v>5234</v>
       </c>
       <c r="I13" t="n">
-        <v>10187</v>
+        <v>8195</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1406</v>
+        <v>0.1326</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1102</v>
+        <v>0.1033</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1744</v>
+        <v>0.1618</v>
       </c>
       <c r="M13" t="s">
         <v>66</v>
@@ -1407,22 +1404,22 @@
         <v>68</v>
       </c>
       <c r="P13" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q13" t="n">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="R13" t="n">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1032</v>
+        <v>0.0914</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0713</v>
+        <v>0.0725</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1342</v>
+        <v>0.1122</v>
       </c>
     </row>
     <row r="14">
@@ -1436,63 +1433,63 @@
         <v>52</v>
       </c>
       <c r="D14" t="n">
-        <v>74284</v>
+        <v>62669</v>
       </c>
       <c r="E14" t="n">
-        <v>67559</v>
+        <v>57726</v>
       </c>
       <c r="F14" t="n">
-        <v>81555</v>
+        <v>68228</v>
       </c>
       <c r="G14" t="n">
-        <v>7644</v>
+        <v>5292</v>
       </c>
       <c r="H14" t="n">
-        <v>5719</v>
+        <v>3804</v>
       </c>
       <c r="I14" t="n">
-        <v>9711</v>
+        <v>6799</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1147</v>
+        <v>0.0922</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0858</v>
+        <v>0.0663</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1457</v>
+        <v>0.1185</v>
       </c>
       <c r="M14" t="s">
         <v>70</v>
       </c>
       <c r="N14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
         <v>71</v>
       </c>
-      <c r="O14" t="s">
-        <v>72</v>
-      </c>
       <c r="P14" t="n">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="Q14" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="R14" t="n">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0506</v>
+        <v>0.0668</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0239</v>
+        <v>0.0489</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0784</v>
+        <v>0.087</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43966</v>
@@ -1501,58 +1498,58 @@
         <v>53</v>
       </c>
       <c r="D15" t="n">
-        <v>84397</v>
+        <v>70251</v>
       </c>
       <c r="E15" t="n">
-        <v>76420</v>
+        <v>64421</v>
       </c>
       <c r="F15" t="n">
-        <v>92964</v>
+        <v>76766</v>
       </c>
       <c r="G15" t="n">
-        <v>10113</v>
+        <v>7582</v>
       </c>
       <c r="H15" t="n">
-        <v>7978</v>
+        <v>5843</v>
       </c>
       <c r="I15" t="n">
-        <v>12511</v>
+        <v>9450</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1361</v>
+        <v>0.121</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1074</v>
+        <v>0.0932</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1684</v>
+        <v>0.1508</v>
       </c>
       <c r="M15" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" t="s">
         <v>74</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>75</v>
       </c>
-      <c r="O15" t="s">
-        <v>76</v>
-      </c>
       <c r="P15" t="n">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="Q15" t="n">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="R15" t="n">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0814</v>
+        <v>0.0911</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0531</v>
+        <v>0.0712</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1122</v>
+        <v>0.112</v>
       </c>
     </row>
   </sheetData>
